--- a/src/analysis_examples/circadb/results_jtk/cosinor_10371959_elk3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10371959_elk3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2902510563671363, 0.3585878586752756]</t>
+          <t>[0.2890520107928904, 0.3597869042495215]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.884981308350689e-15</v>
+        <v>9.769962616701378e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>4.884981308350689e-15</v>
+        <v>9.769962616701378e-15</v>
       </c>
       <c r="O2" t="n">
         <v>-1.094368612061309</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4654337830938683, 0.5032488839797277]</t>
+          <t>[0.4654503899105563, 0.5032322771630396]</t>
         </is>
       </c>
       <c r="U2" t="n">
